--- a/package/calibration_data/residential_electricity_price.xlsx
+++ b/package/calibration_data/residential_electricity_price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1621511\Documents_temp\Code\endogenous_innovation_and_preference_change\package\calibration_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1621511\Documents_temp\Code\endogenous_innovation_and_preference_change\package\calibration_data_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C86751-9D8E-419A-B73D-57BF8A7CBE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA2B0A3-E308-4267-8FE8-AACF5CA7E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B265"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="G283" sqref="G283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2504,6 +2504,182 @@
         <v>0.26040000000000002</v>
       </c>
     </row>
+    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A266" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B266" s="1">
+        <v>0.26469999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A267" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B267" s="1">
+        <v>0.27250000000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A268" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0.3039</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A269" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B269" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A270" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B270" s="1">
+        <v>0.29820000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A271" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B271" s="1">
+        <v>0.31240000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A272" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0.29459999999999997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A273" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B273" s="1">
+        <v>0.29970000000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A274" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B274" s="1">
+        <v>0.30009999999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A275" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B275" s="1">
+        <v>0.31780000000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A276" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B276" s="1">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A277" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B277" s="1">
+        <v>0.29120000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A278" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B278" s="1">
+        <v>0.2949</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A279" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B279" s="1">
+        <v>0.31240000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A280" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B280" s="1">
+        <v>0.32479999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B281" s="1">
+        <v>0.34260000000000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A282" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B282" s="1">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A283" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B283" s="1">
+        <v>0.32990000000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A284" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B284" s="1">
+        <v>0.32550000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A285" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B285" s="1">
+        <v>0.3105</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A286" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B286" s="1">
+        <v>0.31640000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A287" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B287" s="1">
+        <v>0.30220000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
